--- a/data/springcloud-course/hr-oauth_structure.xlsx
+++ b/data/springcloud-course/hr-oauth_structure.xlsx
@@ -348,43 +348,43 @@
     <t>client_id</t>
   </si>
   <si>
+    <t>accessTokenConverter</t>
+  </si>
+  <si>
+    <t>secret_id</t>
+  </si>
+  <si>
     <t>passwordEncoder</t>
   </si>
   <si>
     <t>tokenStore</t>
   </si>
   <si>
-    <t>secret_id</t>
-  </si>
-  <si>
-    <t>accessTokenConverter</t>
-  </si>
-  <si>
     <t>jwtSecret</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>userFeignClient</t>
   </si>
   <si>
     <t>logger</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>userFeignClient</t>
   </si>
   <si>
     <t>roleName</t>
@@ -3882,7 +3882,7 @@
         <v>61</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -3896,7 +3896,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -3910,7 +3910,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -3924,7 +3924,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -3966,7 +3966,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -3980,7 +3980,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -3994,7 +3994,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -4008,7 +4008,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -4022,7 +4022,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -4030,13 +4030,13 @@
         <v>70</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -4044,7 +4044,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>61</v>
@@ -4058,13 +4058,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -4072,13 +4072,13 @@
         <v>56</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -4086,7 +4086,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>61</v>
@@ -4100,7 +4100,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>61</v>
@@ -4114,13 +4114,13 @@
         <v>82</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -4128,13 +4128,13 @@
         <v>82</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -4142,13 +4142,13 @@
         <v>87</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -4156,13 +4156,13 @@
         <v>87</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -4184,7 +4184,7 @@
         <v>90</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>61</v>
